--- a/data/SRC.xlsx
+++ b/data/SRC.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>SRC</t>
@@ -27763,7 +27763,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AK176"/>
+  <dimension ref="A1:AL176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -27808,6 +27808,7 @@
     <col min="35" max="35" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="36" max="36" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="16.7890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="16.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27962,6 +27963,9 @@
       <c r="AK11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AL11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
@@ -28072,6 +28076,9 @@
       <c r="AK12" s="25" t="n">
         <v>2.1928698142E10</v>
       </c>
+      <c r="AL12" s="25" t="n">
+        <v>1.873835444E10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
@@ -28182,6 +28189,9 @@
       <c r="AK13" s="25" t="n">
         <v>7.31615199E8</v>
       </c>
+      <c r="AL13" s="25" t="n">
+        <v>5.37926456E8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
@@ -28292,6 +28302,9 @@
       <c r="AK14" s="25" t="n">
         <v>1.2197082943E10</v>
       </c>
+      <c r="AL14" s="25" t="n">
+        <v>9.200427984E9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
@@ -28402,6 +28415,9 @@
       <c r="AK15" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL15" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
@@ -28512,6 +28528,9 @@
       <c r="AK16" s="25" t="n">
         <v>9.0E9</v>
       </c>
+      <c r="AL16" s="25" t="n">
+        <v>9.0E9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
@@ -28622,6 +28641,9 @@
       <c r="AK17" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL17" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
@@ -28732,6 +28754,9 @@
       <c r="AK18" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL18" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
@@ -28842,6 +28867,9 @@
       <c r="AK19" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL19" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
@@ -28952,6 +28980,9 @@
       <c r="AK20" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL20" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
@@ -29062,6 +29093,9 @@
       <c r="AK21" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL21" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
@@ -29172,6 +29206,9 @@
       <c r="AK22" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL22" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
@@ -29282,6 +29319,9 @@
       <c r="AK23" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL23" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
@@ -29392,6 +29432,9 @@
       <c r="AK24" s="25" t="n">
         <v>5.135401472E9</v>
       </c>
+      <c r="AL24" s="25" t="n">
+        <v>6.58827062E9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
@@ -29502,6 +29545,9 @@
       <c r="AK25" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL25" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
@@ -29612,6 +29658,9 @@
       <c r="AK26" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL26" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
@@ -29722,6 +29771,9 @@
       <c r="AK27" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL27" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
@@ -29832,6 +29884,9 @@
       <c r="AK28" s="25" t="n">
         <v>5.135401472E9</v>
       </c>
+      <c r="AL28" s="25" t="n">
+        <v>6.58827062E9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
@@ -29942,6 +29997,9 @@
       <c r="AK29" s="25" t="n">
         <v>2.6272248812E11</v>
       </c>
+      <c r="AL29" s="25" t="n">
+        <v>2.44809092031E11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
@@ -30052,6 +30110,9 @@
       <c r="AK30" s="25" t="n">
         <v>4.72725748E9</v>
       </c>
+      <c r="AL30" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
@@ -30162,6 +30223,9 @@
       <c r="AK31" s="25" t="n">
         <v>1.01636557858E11</v>
       </c>
+      <c r="AL31" s="25" t="n">
+        <v>1.04399288974E11</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
@@ -30272,6 +30336,9 @@
       <c r="AK32" s="25" t="n">
         <v>2.167630049E9</v>
       </c>
+      <c r="AL32" s="25" t="n">
+        <v>2.127116976E9</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
@@ -30382,6 +30449,9 @@
       <c r="AK33" s="25" t="n">
         <v>9.630069323E9</v>
       </c>
+      <c r="AL33" s="25" t="n">
+        <v>7.956145565E9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
@@ -30492,6 +30562,9 @@
       <c r="AK34" s="25" t="n">
         <v>1.43538084588E11</v>
       </c>
+      <c r="AL34" s="25" t="n">
+        <v>1.29446060545E11</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
@@ -30602,6 +30675,9 @@
       <c r="AK35" s="25" t="n">
         <v>7149998.0</v>
       </c>
+      <c r="AL35" s="25" t="n">
+        <v>1.735E7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
@@ -30712,6 +30788,9 @@
       <c r="AK36" s="25" t="n">
         <v>1.015738824E9</v>
       </c>
+      <c r="AL36" s="25" t="n">
+        <v>8.63129971E8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
@@ -30822,6 +30901,9 @@
       <c r="AK37" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL37" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
@@ -30932,6 +31014,9 @@
       <c r="AK38" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL38" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
@@ -31042,6 +31127,9 @@
       <c r="AK39" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL39" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
@@ -31152,6 +31240,9 @@
       <c r="AK40" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL40" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
@@ -31262,6 +31353,9 @@
       <c r="AK41" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL41" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
@@ -31372,6 +31466,9 @@
       <c r="AK42" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL42" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
@@ -31482,6 +31579,9 @@
       <c r="AK43" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL43" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
@@ -31592,6 +31692,9 @@
       <c r="AK44" s="25" t="n">
         <v>2.42E8</v>
       </c>
+      <c r="AL44" s="25" t="n">
+        <v>2.42E8</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
@@ -31702,6 +31805,9 @@
       <c r="AK45" s="25" t="n">
         <v>2.42E8</v>
       </c>
+      <c r="AL45" s="25" t="n">
+        <v>2.42E8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
@@ -31812,6 +31918,9 @@
       <c r="AK46" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL46" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
@@ -31922,6 +32031,9 @@
       <c r="AK47" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL47" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
@@ -32032,6 +32144,9 @@
       <c r="AK48" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL48" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
@@ -32142,6 +32257,9 @@
       <c r="AK49" s="25" t="n">
         <v>6.83178307189E11</v>
       </c>
+      <c r="AL49" s="25" t="n">
+        <v>6.83887347459E11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
@@ -32252,6 +32370,9 @@
       <c r="AK50" s="25" t="n">
         <v>6.82879204189E11</v>
       </c>
+      <c r="AL50" s="25" t="n">
+        <v>6.82879204189E11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
@@ -32362,6 +32483,9 @@
       <c r="AK51" s="25" t="n">
         <v>2.99103E8</v>
       </c>
+      <c r="AL51" s="25" t="n">
+        <v>1.00814327E9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
@@ -32472,6 +32596,9 @@
       <c r="AK52" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL52" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
@@ -32582,6 +32709,9 @@
       <c r="AK53" s="25" t="n">
         <v>6.54600214676E11</v>
       </c>
+      <c r="AL53" s="25" t="n">
+        <v>6.56261683563E11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
@@ -32692,6 +32822,9 @@
       <c r="AK54" s="25" t="n">
         <v>6.5108704206E11</v>
       </c>
+      <c r="AL54" s="25" t="n">
+        <v>6.5108704206E11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
@@ -32802,6 +32935,9 @@
       <c r="AK55" s="25" t="n">
         <v>3.513172616E9</v>
       </c>
+      <c r="AL55" s="25" t="n">
+        <v>5.174641503E9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
@@ -32912,6 +33048,9 @@
       <c r="AK56" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL56" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
@@ -33022,6 +33161,9 @@
       <c r="AK57" s="25" t="n">
         <v>2.0124700342E10</v>
       </c>
+      <c r="AL57" s="25" t="n">
+        <v>2.0124700342E10</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
@@ -33132,6 +33274,9 @@
       <c r="AK58" s="25" t="n">
         <v>2.0124700342E10</v>
       </c>
+      <c r="AL58" s="25" t="n">
+        <v>2.0124700342E10</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
@@ -33242,6 +33387,9 @@
       <c r="AK59" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL59" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
@@ -33352,6 +33500,9 @@
       <c r="AK60" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL60" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
@@ -33462,6 +33613,9 @@
       <c r="AK61" s="25" t="n">
         <v>8.522256305E9</v>
       </c>
+      <c r="AL61" s="25" t="n">
+        <v>9.27353064E9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
@@ -33572,6 +33726,9 @@
       <c r="AK62" s="25" t="n">
         <v>7.019707635E9</v>
       </c>
+      <c r="AL62" s="25" t="n">
+        <v>7.019707635E9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
@@ -33682,6 +33839,9 @@
       <c r="AK63" s="25" t="n">
         <v>1.50254867E9</v>
       </c>
+      <c r="AL63" s="25" t="n">
+        <v>2.253823005E9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
@@ -33792,6 +33952,9 @@
       <c r="AK64" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL64" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
@@ -33902,6 +34065,9 @@
       <c r="AK65" s="25" t="n">
         <v>3.615723022E9</v>
       </c>
+      <c r="AL65" s="25" t="n">
+        <v>1.0335112352E10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
@@ -34012,6 +34178,9 @@
       <c r="AK66" s="25" t="n">
         <v>3.615723022E9</v>
       </c>
+      <c r="AL66" s="25" t="n">
+        <v>3.615723022E9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
@@ -34122,6 +34291,9 @@
       <c r="AK67" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL67" s="25" t="n">
+        <v>6.71938933E9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
@@ -34232,6 +34404,9 @@
       <c r="AK68" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL68" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
@@ -34342,6 +34517,9 @@
       <c r="AK69" s="25" t="n">
         <v>2.2360455E8</v>
       </c>
+      <c r="AL69" s="25" t="n">
+        <v>2.26471275E8</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
@@ -34452,6 +34630,9 @@
       <c r="AK70" s="25" t="n">
         <v>2.178711E8</v>
       </c>
+      <c r="AL70" s="25" t="n">
+        <v>2.178711E8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
@@ -34562,6 +34743,9 @@
       <c r="AK71" s="25" t="n">
         <v>5733450.0</v>
       </c>
+      <c r="AL71" s="25" t="n">
+        <v>8600175.0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
@@ -34672,6 +34856,9 @@
       <c r="AK72" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL72" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
@@ -34782,6 +34969,9 @@
       <c r="AK73" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL73" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
@@ -34892,6 +35082,9 @@
       <c r="AK74" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL74" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
@@ -35002,6 +35195,9 @@
       <c r="AK75" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL75" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
@@ -35112,6 +35308,9 @@
       <c r="AK76" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL76" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
@@ -35222,6 +35421,9 @@
       <c r="AK77" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL77" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
@@ -35332,6 +35534,9 @@
       <c r="AK78" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL78" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
@@ -35442,6 +35647,9 @@
       <c r="AK79" s="25" t="n">
         <v>3.48185400698E11</v>
       </c>
+      <c r="AL79" s="25" t="n">
+        <v>3.05801200193E11</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
@@ -35552,6 +35760,9 @@
       <c r="AK80" s="25" t="n">
         <v>3.46452014821E11</v>
       </c>
+      <c r="AL80" s="25" t="n">
+        <v>3.02614183564E11</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
@@ -35662,6 +35873,9 @@
       <c r="AK81" s="25" t="n">
         <v>1.733385877E9</v>
       </c>
+      <c r="AL81" s="25" t="n">
+        <v>3.187016629E9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
@@ -35772,6 +35986,9 @@
       <c r="AK82" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL82" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
@@ -35882,6 +36099,9 @@
       <c r="AK83" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL83" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
@@ -35992,6 +36212,9 @@
       <c r="AK84" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL84" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
@@ -36102,6 +36325,9 @@
       <c r="AK85" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL85" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
@@ -36212,6 +36438,9 @@
       <c r="AK86" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL86" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
@@ -36322,6 +36551,9 @@
       <c r="AK87" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL87" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
@@ -36432,6 +36664,9 @@
       <c r="AK88" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL88" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
@@ -36542,6 +36777,9 @@
       <c r="AK89" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL89" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
@@ -36652,6 +36890,9 @@
       <c r="AK90" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL90" s="25" t="n">
+        <v>1.1128438849E10</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
@@ -36762,6 +37003,9 @@
       <c r="AK91" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL91" s="25" t="n">
+        <v>1.388522986E9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
@@ -36872,6 +37116,9 @@
       <c r="AK92" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL92" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
@@ -36982,6 +37229,9 @@
       <c r="AK93" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL93" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
@@ -37092,6 +37342,9 @@
       <c r="AK94" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL94" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
@@ -37202,6 +37455,9 @@
       <c r="AK95" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL95" s="25" t="n">
+        <v>2.9557133E7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
@@ -37312,6 +37568,9 @@
       <c r="AK96" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL96" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
@@ -37422,6 +37681,9 @@
       <c r="AK97" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL97" s="25" t="n">
+        <v>9.71035873E9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
@@ -37532,6 +37794,9 @@
       <c r="AK98" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL98" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
@@ -37642,6 +37907,9 @@
       <c r="AK99" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL99" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
@@ -37752,6 +38020,9 @@
       <c r="AK100" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL100" s="25" t="n">
+        <v>5.802390136E9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
@@ -37862,6 +38133,9 @@
       <c r="AK101" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL101" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
@@ -37972,6 +38246,9 @@
       <c r="AK102" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL102" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
@@ -38082,6 +38359,9 @@
       <c r="AK103" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL103" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
@@ -38192,6 +38472,9 @@
       <c r="AK104" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL104" s="25" t="n">
+        <v>5.802390136E9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
@@ -38302,6 +38585,9 @@
       <c r="AK105" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL105" s="25" t="n">
+        <v>6.304062765E9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
@@ -38412,6 +38698,9 @@
       <c r="AK106" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL106" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
@@ -38522,6 +38811,9 @@
       <c r="AK107" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL107" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
@@ -38632,6 +38924,9 @@
       <c r="AK108" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL108" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
@@ -38742,6 +39037,9 @@
       <c r="AK109" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL109" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
@@ -38852,6 +39150,9 @@
       <c r="AK110" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL110" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
@@ -38962,6 +39263,9 @@
       <c r="AK111" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL111" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
@@ -39072,6 +39376,9 @@
       <c r="AK112" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL112" s="25" t="n">
+        <v>3.389497355E9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
@@ -39182,6 +39489,9 @@
       <c r="AK113" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL113" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
@@ -39292,6 +39602,9 @@
       <c r="AK114" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL114" s="25" t="n">
+        <v>2.91456541E9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
@@ -39402,6 +39715,9 @@
       <c r="AK115" s="25" t="n">
         <v>1.638607625E9</v>
       </c>
+      <c r="AL115" s="25" t="n">
+        <v>1.512163253E9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
@@ -39512,6 +39828,9 @@
       <c r="AK116" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL116" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
@@ -39622,6 +39941,9 @@
       <c r="AK117" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL117" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
@@ -39732,6 +40054,9 @@
       <c r="AK118" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL118" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
@@ -39842,6 +40167,9 @@
       <c r="AK119" s="25" t="n">
         <v>1.638607625E9</v>
       </c>
+      <c r="AL119" s="25" t="n">
+        <v>1.512163253E9</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
@@ -39952,6 +40280,9 @@
       <c r="AK120" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL120" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
@@ -40062,6 +40393,9 @@
       <c r="AK121" s="25" t="n">
         <v>2.8065765E11</v>
       </c>
+      <c r="AL121" s="25" t="n">
+        <v>2.8065765E11</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
@@ -40172,6 +40506,9 @@
       <c r="AK122" s="25" t="n">
         <v>1.0104115E11</v>
       </c>
+      <c r="AL122" s="25" t="n">
+        <v>1.0104115E11</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
@@ -40282,6 +40619,9 @@
       <c r="AK123" s="25" t="n">
         <v>1.796165E11</v>
       </c>
+      <c r="AL123" s="25" t="n">
+        <v>1.796165E11</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
@@ -40392,6 +40732,9 @@
       <c r="AK124" s="25" t="n">
         <v>3.84296302822E11</v>
       </c>
+      <c r="AL124" s="25" t="n">
+        <v>2.87305189806E11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
@@ -40502,6 +40845,9 @@
       <c r="AK125" s="25" t="n">
         <v>3.80658379876E11</v>
       </c>
+      <c r="AL125" s="25" t="n">
+        <v>2.8438000086E11</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
@@ -40612,6 +40958,9 @@
       <c r="AK126" s="25" t="n">
         <v>3.637922946E9</v>
       </c>
+      <c r="AL126" s="25" t="n">
+        <v>2.925188946E9</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
@@ -40722,6 +41071,9 @@
       <c r="AK127" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL127" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
@@ -40832,6 +41184,9 @@
       <c r="AK128" s="25" t="n">
         <v>8.779101397E9</v>
       </c>
+      <c r="AL128" s="25" t="n">
+        <v>8.095196636E9</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
@@ -40942,6 +41297,9 @@
       <c r="AK129" s="25" t="n">
         <v>8.583907E9</v>
       </c>
+      <c r="AL129" s="25" t="n">
+        <v>8.095196636E9</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
@@ -41052,6 +41410,9 @@
       <c r="AK130" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL130" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
@@ -41162,6 +41523,9 @@
       <c r="AK131" s="25" t="n">
         <v>1.95194397E8</v>
       </c>
+      <c r="AL131" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
@@ -41272,6 +41636,9 @@
       <c r="AK132" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL132" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
@@ -41382,6 +41749,9 @@
       <c r="AK133" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL133" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
@@ -41492,6 +41862,9 @@
       <c r="AK134" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL134" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
@@ -41602,6 +41975,9 @@
       <c r="AK135" s="25" t="n">
         <v>3.37510878639E11</v>
       </c>
+      <c r="AL135" s="25" t="n">
+        <v>2.43895222022E11</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
@@ -41712,6 +42088,9 @@
       <c r="AK136" s="25" t="n">
         <v>1.6969246662E11</v>
       </c>
+      <c r="AL136" s="25" t="n">
+        <v>6.8192484634E10</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
@@ -41822,6 +42201,9 @@
       <c r="AK137" s="25" t="n">
         <v>1.68074718291E11</v>
       </c>
+      <c r="AL137" s="25" t="n">
+        <v>1.75649842795E11</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
@@ -41932,6 +42314,9 @@
       <c r="AK138" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL138" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
@@ -42042,6 +42427,9 @@
       <c r="AK139" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL139" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
@@ -42152,6 +42540,9 @@
       <c r="AK140" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL140" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
@@ -42262,6 +42653,9 @@
       <c r="AK141" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL141" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
@@ -42372,6 +42766,9 @@
       <c r="AK142" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL142" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
@@ -42482,6 +42879,9 @@
       <c r="AK143" s="25" t="n">
         <v>-2.56306272E8</v>
       </c>
+      <c r="AL143" s="25" t="n">
+        <v>5.2894593E7</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
@@ -42592,6 +42992,9 @@
       <c r="AK144" s="25" t="n">
         <v>8.42550185E8</v>
       </c>
+      <c r="AL144" s="25" t="n">
+        <v>4.32752938E8</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
@@ -42702,6 +43105,9 @@
       <c r="AK145" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL145" s="25" t="n">
+        <v>8.3173215E7</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
@@ -42812,6 +43218,9 @@
       <c r="AK146" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL146" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
@@ -42922,6 +43331,9 @@
       <c r="AK147" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL147" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
@@ -43032,6 +43444,9 @@
       <c r="AK148" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL148" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
@@ -43142,6 +43557,9 @@
       <c r="AK149" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL149" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
@@ -43252,6 +43670,9 @@
       <c r="AK150" s="25" t="n">
         <v>1.802236952E9</v>
       </c>
+      <c r="AL150" s="25" t="n">
+        <v>3.49579723E8</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
@@ -43362,6 +43783,9 @@
       <c r="AK151" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL151" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
@@ -43472,6 +43896,9 @@
       <c r="AK152" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL152" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
@@ -43582,6 +44009,9 @@
       <c r="AK153" s="25" t="n">
         <v>-9.59686767E8</v>
       </c>
+      <c r="AL153" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
@@ -43692,6 +44122,9 @@
       <c r="AK154" s="25" t="n">
         <v>5.859636258E9</v>
       </c>
+      <c r="AL154" s="25" t="n">
+        <v>6.266709002E9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
@@ -43802,6 +44235,9 @@
       <c r="AK155" s="25" t="n">
         <v>5.421004538E9</v>
       </c>
+      <c r="AL155" s="25" t="n">
+        <v>4.936234605E9</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
@@ -43912,6 +44348,9 @@
       <c r="AK156" s="25" t="n">
         <v>1.261078E9</v>
       </c>
+      <c r="AL156" s="25" t="n">
+        <v>1.313793E9</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
@@ -44022,6 +44461,9 @@
       <c r="AK157" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL157" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
@@ -44132,6 +44574,9 @@
       <c r="AK158" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL158" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
@@ -44242,6 +44687,9 @@
       <c r="AK159" s="25" t="n">
         <v>3.20092512E8</v>
       </c>
+      <c r="AL159" s="25" t="n">
+        <v>1.6681397E7</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
@@ -44352,6 +44800,9 @@
       <c r="AK160" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL160" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
@@ -44462,6 +44913,9 @@
       <c r="AK161" s="25" t="n">
         <v>-1.142538792E9</v>
       </c>
+      <c r="AL161" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
@@ -44572,6 +45026,9 @@
       <c r="AK162" s="25" t="n">
         <v>0.0</v>
       </c>
+      <c r="AL162" s="25" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
@@ -44682,6 +45139,9 @@
       <c r="AK163" s="25" t="n">
         <v>2.00819156364E11</v>
       </c>
+      <c r="AL163" s="25" t="n">
+        <v>1.81915151233E11</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
@@ -44792,6 +45252,9 @@
       <c r="AK164" s="25" t="n">
         <v>1.44203665874E11</v>
       </c>
+      <c r="AL164" s="25" t="n">
+        <v>1.27591881873E11</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
@@ -44902,6 +45365,9 @@
       <c r="AK165" s="25" t="n">
         <v>2.4495430487E10</v>
       </c>
+      <c r="AL165" s="25" t="n">
+        <v>2.529831617E10</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
@@ -45012,6 +45478,9 @@
       <c r="AK166" s="25" t="n">
         <v>2.449227937E9</v>
       </c>
+      <c r="AL166" s="25" t="n">
+        <v>2.415609947E9</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
@@ -45122,6 +45591,9 @@
       <c r="AK167" s="25" t="n">
         <v>1.7521629701E10</v>
       </c>
+      <c r="AL167" s="25" t="n">
+        <v>1.4189460242E10</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
@@ -45231,6 +45703,9 @@
       </c>
       <c r="AK168" s="25" t="n">
         <v>1.2149202365E10</v>
+      </c>
+      <c r="AL168" s="25" t="n">
+        <v>1.2419883001E10</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -45271,7 +45746,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="J10:AK10"/>
+    <mergeCell ref="J10:AL10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/SRC.xlsx
+++ b/data/SRC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>SRC</t>

--- a/data/SRC.xlsx
+++ b/data/SRC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>SRC</t>

--- a/data/SRC.xlsx
+++ b/data/SRC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>SRC</t>
